--- a/Guru.xlsx
+++ b/Guru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\absen-siswa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFDF7626-87C4-4811-86CD-743C5432D627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6498077D-AFA3-4861-BF21-AF3851335A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D78C4C3-EBBD-4304-96DF-33BB5FAD390A}"/>
   </bookViews>
@@ -45,16 +45,16 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>David Johnson</t>
-  </si>
-  <si>
-    <t>davidjohnson@example.com</t>
-  </si>
-  <si>
     <t>Passw0rd</t>
   </si>
   <si>
     <t>Jalan Jenderal Sudirman No. 789, Kota LMN</t>
+  </si>
+  <si>
+    <t>David Johnson1</t>
+  </si>
+  <si>
+    <t>davidjohnson1@example.com</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,24 +478,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1">
-        <v>5678901234</v>
+        <v>5678901235</v>
       </c>
       <c r="E2" s="1">
         <v>89012345678</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
